--- a/就職作品ガントチャート.xlsx
+++ b/就職作品ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{B6209C7F-4BD7-497E-8409-06D97F83DC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ED3740-43C5-43EC-B0AE-219C48ABA2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1415,23 +1415,23 @@
     <xf numFmtId="180" fontId="22" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2044,7 +2044,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2096,108 +2096,107 @@
       <c r="B3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
-        <f ca="1">TODAY()</f>
-        <v>45942</v>
-      </c>
-      <c r="F3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="92">
+        <v>45941</v>
+      </c>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
-        <f ca="1">I5</f>
+      <c r="I4" s="89">
+        <f>I5</f>
+        <v>45936</v>
+      </c>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
+        <f>P5</f>
         <v>45943</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
-        <f ca="1">P5</f>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
+        <f>W5</f>
         <v>45950</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
-        <f ca="1">W5</f>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
+        <f>AD5</f>
         <v>45957</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
-        <f ca="1">AD5</f>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
+        <f>AK5</f>
         <v>45964</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
-        <f ca="1">AK5</f>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
+        <f>AR5</f>
         <v>45971</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
-        <f ca="1">AR5</f>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
+        <f>AY5</f>
         <v>45978</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
-        <f ca="1">AY5</f>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
+        <f>BF5</f>
         <v>45985</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
-        <f ca="1">BF5</f>
-        <v>45992</v>
-      </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2212,228 +2211,228 @@
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="I5" s="86">
-        <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
+        <f>プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
+        <v>45936</v>
+      </c>
+      <c r="J5" s="87">
+        <f>I5+1</f>
+        <v>45937</v>
+      </c>
+      <c r="K5" s="87">
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>45938</v>
+      </c>
+      <c r="L5" s="87">
+        <f t="shared" si="0"/>
+        <v>45939</v>
+      </c>
+      <c r="M5" s="87">
+        <f t="shared" si="0"/>
+        <v>45940</v>
+      </c>
+      <c r="N5" s="87">
+        <f t="shared" si="0"/>
+        <v>45941</v>
+      </c>
+      <c r="O5" s="88">
+        <f t="shared" si="0"/>
+        <v>45942</v>
+      </c>
+      <c r="P5" s="86">
+        <f>O5+1</f>
         <v>45943</v>
       </c>
-      <c r="J5" s="87">
-        <f ca="1">I5+1</f>
+      <c r="Q5" s="87">
+        <f>P5+1</f>
         <v>45944</v>
       </c>
-      <c r="K5" s="87">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
+      <c r="R5" s="87">
+        <f t="shared" si="0"/>
         <v>45945</v>
       </c>
-      <c r="L5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="S5" s="87">
+        <f t="shared" si="0"/>
         <v>45946</v>
       </c>
-      <c r="M5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="T5" s="87">
+        <f t="shared" si="0"/>
         <v>45947</v>
       </c>
-      <c r="N5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="U5" s="87">
+        <f t="shared" si="0"/>
         <v>45948</v>
       </c>
-      <c r="O5" s="88">
-        <f t="shared" ca="1" si="0"/>
+      <c r="V5" s="88">
+        <f t="shared" si="0"/>
         <v>45949</v>
       </c>
-      <c r="P5" s="86">
-        <f ca="1">O5+1</f>
+      <c r="W5" s="86">
+        <f>V5+1</f>
         <v>45950</v>
       </c>
-      <c r="Q5" s="87">
-        <f ca="1">P5+1</f>
+      <c r="X5" s="87">
+        <f>W5+1</f>
         <v>45951</v>
       </c>
-      <c r="R5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y5" s="87">
+        <f t="shared" si="0"/>
         <v>45952</v>
       </c>
-      <c r="S5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Z5" s="87">
+        <f t="shared" si="0"/>
         <v>45953</v>
       </c>
-      <c r="T5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AA5" s="87">
+        <f t="shared" si="0"/>
         <v>45954</v>
       </c>
-      <c r="U5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AB5" s="87">
+        <f t="shared" si="0"/>
         <v>45955</v>
       </c>
-      <c r="V5" s="88">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AC5" s="88">
+        <f t="shared" si="0"/>
         <v>45956</v>
       </c>
-      <c r="W5" s="86">
-        <f ca="1">V5+1</f>
+      <c r="AD5" s="86">
+        <f>AC5+1</f>
         <v>45957</v>
       </c>
-      <c r="X5" s="87">
-        <f ca="1">W5+1</f>
+      <c r="AE5" s="87">
+        <f>AD5+1</f>
         <v>45958</v>
       </c>
-      <c r="Y5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AF5" s="87">
+        <f t="shared" si="0"/>
         <v>45959</v>
       </c>
-      <c r="Z5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AG5" s="87">
+        <f t="shared" si="0"/>
         <v>45960</v>
       </c>
-      <c r="AA5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AH5" s="87">
+        <f t="shared" si="0"/>
         <v>45961</v>
       </c>
-      <c r="AB5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AI5" s="87">
+        <f t="shared" si="0"/>
         <v>45962</v>
       </c>
-      <c r="AC5" s="88">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AJ5" s="88">
+        <f t="shared" si="0"/>
         <v>45963</v>
       </c>
-      <c r="AD5" s="86">
-        <f ca="1">AC5+1</f>
+      <c r="AK5" s="86">
+        <f>AJ5+1</f>
         <v>45964</v>
       </c>
-      <c r="AE5" s="87">
-        <f ca="1">AD5+1</f>
+      <c r="AL5" s="87">
+        <f>AK5+1</f>
         <v>45965</v>
       </c>
-      <c r="AF5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AM5" s="87">
+        <f t="shared" si="0"/>
         <v>45966</v>
       </c>
-      <c r="AG5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AN5" s="87">
+        <f t="shared" si="0"/>
         <v>45967</v>
       </c>
-      <c r="AH5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AO5" s="87">
+        <f t="shared" si="0"/>
         <v>45968</v>
       </c>
-      <c r="AI5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AP5" s="87">
+        <f t="shared" si="0"/>
         <v>45969</v>
       </c>
-      <c r="AJ5" s="88">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AQ5" s="88">
+        <f t="shared" si="0"/>
         <v>45970</v>
       </c>
-      <c r="AK5" s="86">
-        <f ca="1">AJ5+1</f>
+      <c r="AR5" s="86">
+        <f>AQ5+1</f>
         <v>45971</v>
       </c>
-      <c r="AL5" s="87">
-        <f ca="1">AK5+1</f>
+      <c r="AS5" s="87">
+        <f>AR5+1</f>
         <v>45972</v>
       </c>
-      <c r="AM5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AT5" s="87">
+        <f t="shared" si="0"/>
         <v>45973</v>
       </c>
-      <c r="AN5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AU5" s="87">
+        <f t="shared" si="0"/>
         <v>45974</v>
       </c>
-      <c r="AO5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AV5" s="87">
+        <f t="shared" si="0"/>
         <v>45975</v>
       </c>
-      <c r="AP5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AW5" s="87">
+        <f t="shared" si="0"/>
         <v>45976</v>
       </c>
-      <c r="AQ5" s="88">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AX5" s="88">
+        <f t="shared" si="0"/>
         <v>45977</v>
       </c>
-      <c r="AR5" s="86">
-        <f ca="1">AQ5+1</f>
+      <c r="AY5" s="86">
+        <f>AX5+1</f>
         <v>45978</v>
       </c>
-      <c r="AS5" s="87">
-        <f ca="1">AR5+1</f>
+      <c r="AZ5" s="87">
+        <f>AY5+1</f>
         <v>45979</v>
       </c>
-      <c r="AT5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BA5" s="87">
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45980</v>
       </c>
-      <c r="AU5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BB5" s="87">
+        <f t="shared" si="1"/>
         <v>45981</v>
       </c>
-      <c r="AV5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BC5" s="87">
+        <f t="shared" si="1"/>
         <v>45982</v>
       </c>
-      <c r="AW5" s="87">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BD5" s="87">
+        <f t="shared" si="1"/>
         <v>45983</v>
       </c>
-      <c r="AX5" s="88">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BE5" s="88">
+        <f t="shared" si="1"/>
         <v>45984</v>
       </c>
-      <c r="AY5" s="86">
-        <f ca="1">AX5+1</f>
+      <c r="BF5" s="86">
+        <f>BE5+1</f>
         <v>45985</v>
       </c>
-      <c r="AZ5" s="87">
-        <f ca="1">AY5+1</f>
+      <c r="BG5" s="87">
+        <f>BF5+1</f>
         <v>45986</v>
       </c>
-      <c r="BA5" s="87">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
+      <c r="BH5" s="87">
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45987</v>
       </c>
-      <c r="BB5" s="87">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BI5" s="87">
+        <f t="shared" si="2"/>
         <v>45988</v>
       </c>
-      <c r="BC5" s="87">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BJ5" s="87">
+        <f t="shared" si="2"/>
         <v>45989</v>
       </c>
-      <c r="BD5" s="87">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BK5" s="87">
+        <f t="shared" si="2"/>
         <v>45990</v>
       </c>
-      <c r="BE5" s="88">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BL5" s="88">
+        <f t="shared" si="2"/>
         <v>45991</v>
-      </c>
-      <c r="BF5" s="86">
-        <f ca="1">BE5+1</f>
-        <v>45992</v>
-      </c>
-      <c r="BG5" s="87">
-        <f ca="1">BF5+1</f>
-        <v>45993</v>
-      </c>
-      <c r="BH5" s="87">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45994</v>
-      </c>
-      <c r="BI5" s="87">
-        <f t="shared" ca="1" si="2"/>
-        <v>45995</v>
-      </c>
-      <c r="BJ5" s="87">
-        <f t="shared" ca="1" si="2"/>
-        <v>45996</v>
-      </c>
-      <c r="BK5" s="87">
-        <f t="shared" ca="1" si="2"/>
-        <v>45997</v>
-      </c>
-      <c r="BL5" s="88">
-        <f t="shared" ca="1" si="2"/>
-        <v>45998</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2460,227 +2459,227 @@
         <v>27</v>
       </c>
       <c r="I6" s="37" t="str">
-        <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
+        <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
         <v>月</v>
       </c>
       <c r="J6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>火</v>
       </c>
       <c r="K6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
       <c r="L6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>木</v>
       </c>
       <c r="M6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>金</v>
       </c>
       <c r="N6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>土</v>
       </c>
       <c r="O6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
       <c r="P6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>月</v>
       </c>
       <c r="Q6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>火</v>
       </c>
       <c r="R6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
       <c r="S6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>木</v>
       </c>
       <c r="T6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>金</v>
       </c>
       <c r="U6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>土</v>
       </c>
       <c r="V6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
       <c r="W6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>月</v>
       </c>
       <c r="X6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>火</v>
       </c>
       <c r="Y6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
       <c r="Z6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>木</v>
       </c>
       <c r="AA6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>金</v>
       </c>
       <c r="AB6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>土</v>
       </c>
       <c r="AC6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
       <c r="AD6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>月</v>
       </c>
       <c r="AE6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>火</v>
       </c>
       <c r="AF6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
       <c r="AG6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>木</v>
       </c>
       <c r="AH6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>金</v>
       </c>
       <c r="AI6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>土</v>
       </c>
       <c r="AJ6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
       <c r="AK6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>月</v>
       </c>
       <c r="AL6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>火</v>
       </c>
       <c r="AM6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
       <c r="AN6" s="37" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>木</v>
       </c>
       <c r="AO6" s="37" t="str">
-        <f t="shared" ref="AO6:BL6" ca="1" si="4">LEFT(TEXT(AO5,"aaa"),1)</f>
+        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"aaa"),1)</f>
         <v>金</v>
       </c>
       <c r="AP6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>土</v>
       </c>
       <c r="AQ6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
       <c r="AR6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>月</v>
       </c>
       <c r="AS6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>火</v>
       </c>
       <c r="AT6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>水</v>
       </c>
       <c r="AU6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>木</v>
       </c>
       <c r="AV6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>金</v>
       </c>
       <c r="AW6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>土</v>
       </c>
       <c r="AX6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
       <c r="AY6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>月</v>
       </c>
       <c r="AZ6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>火</v>
       </c>
       <c r="BA6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>水</v>
       </c>
       <c r="BB6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>木</v>
       </c>
       <c r="BC6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>金</v>
       </c>
       <c r="BD6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>土</v>
       </c>
       <c r="BE6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
       <c r="BF6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>月</v>
       </c>
       <c r="BG6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>火</v>
       </c>
       <c r="BH6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>水</v>
       </c>
       <c r="BI6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>木</v>
       </c>
       <c r="BJ6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>金</v>
       </c>
       <c r="BK6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>土</v>
       </c>
       <c r="BL6" s="37" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
     </row>
@@ -2838,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="73">
-        <f ca="1">プロジェクトの開始</f>
+        <f>プロジェクトの開始</f>
+        <v>45941</v>
+      </c>
+      <c r="F9" s="73">
+        <f>E9+1</f>
         <v>45942</v>
-      </c>
-      <c r="F9" s="73">
-        <f ca="1">E9+1</f>
-        <v>45943</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I9" s="5"/>
@@ -2921,16 +2920,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="73">
-        <f ca="1">F9</f>
-        <v>45943</v>
+        <f>F9</f>
+        <v>45942</v>
       </c>
       <c r="F10" s="73">
-        <f ca="1">E10+2</f>
-        <v>45945</v>
+        <f>E10+2</f>
+        <v>45944</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I10" s="5"/>
@@ -3002,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="73">
-        <f ca="1">F10</f>
-        <v>45945</v>
+        <f>F10</f>
+        <v>45944</v>
       </c>
       <c r="F11" s="73">
-        <f ca="1">E11+2</f>
-        <v>45947</v>
+        <f>E11+2</f>
+        <v>45946</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I11" s="5"/>
@@ -3083,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="73">
-        <f ca="1">F11</f>
-        <v>45947</v>
+        <f>F11</f>
+        <v>45946</v>
       </c>
       <c r="F12" s="73">
-        <f ca="1">E12+2</f>
-        <v>45949</v>
+        <f>E12+2</f>
+        <v>45948</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I12" s="5"/>
@@ -3237,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="76">
-        <f ca="1">F12</f>
+        <f>F12</f>
+        <v>45948</v>
+      </c>
+      <c r="F14" s="76">
+        <f>E14+1</f>
         <v>45949</v>
-      </c>
-      <c r="F14" s="76">
-        <f ca="1">E14+1</f>
-        <v>45950</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I14" s="5"/>
@@ -3318,16 +3317,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="76">
-        <f ca="1">E14</f>
+        <f>E14</f>
+        <v>45948</v>
+      </c>
+      <c r="F15" s="76">
+        <f>E15+1</f>
         <v>45949</v>
-      </c>
-      <c r="F15" s="76">
-        <f ca="1">E15+1</f>
-        <v>45950</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I15" s="5"/>
@@ -3399,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="76">
-        <f ca="1">F15</f>
-        <v>45950</v>
+        <f>F15</f>
+        <v>45949</v>
       </c>
       <c r="F16" s="76">
-        <f ca="1">E16+3</f>
-        <v>45953</v>
+        <f>E16+3</f>
+        <v>45952</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I16" s="5"/>
@@ -3480,16 +3479,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="76">
-        <f ca="1">F16</f>
-        <v>45953</v>
+        <f>F16</f>
+        <v>45952</v>
       </c>
       <c r="F17" s="76">
-        <f ca="1">E17+2</f>
-        <v>45955</v>
+        <f>E17+2</f>
+        <v>45954</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I17" s="5"/>
@@ -3632,16 +3631,16 @@
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="79">
-        <f ca="1">F17</f>
+        <f>F17</f>
+        <v>45954</v>
+      </c>
+      <c r="F19" s="79">
+        <f>E19+1</f>
         <v>45955</v>
-      </c>
-      <c r="F19" s="79">
-        <f ca="1">E19+1</f>
-        <v>45956</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I19" s="5"/>
@@ -3711,16 +3710,16 @@
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="79">
-        <f ca="1">F19</f>
+        <f>F19</f>
+        <v>45955</v>
+      </c>
+      <c r="F20" s="79">
+        <f>E20+1</f>
         <v>45956</v>
-      </c>
-      <c r="F20" s="79">
-        <f ca="1">E20+1</f>
-        <v>45957</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I20" s="5"/>
@@ -3790,16 +3789,16 @@
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="79">
-        <f ca="1">F20</f>
-        <v>45957</v>
+        <f>F20</f>
+        <v>45956</v>
       </c>
       <c r="F21" s="79">
-        <f ca="1">E21+5</f>
-        <v>45962</v>
+        <f>E21+5</f>
+        <v>45961</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I21" s="5"/>
@@ -3869,16 +3868,16 @@
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="79">
-        <f ca="1">F21+1</f>
-        <v>45963</v>
+        <f>F21+1</f>
+        <v>45962</v>
       </c>
       <c r="F22" s="79">
-        <f ca="1">E22+4</f>
-        <v>45967</v>
+        <f>E22+4</f>
+        <v>45966</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I22" s="5"/>
@@ -3946,16 +3945,16 @@
       <c r="C23" s="19"/>
       <c r="D23" s="47"/>
       <c r="E23" s="79">
-        <f ca="1">E21</f>
-        <v>45957</v>
+        <f>E21</f>
+        <v>45956</v>
       </c>
       <c r="F23" s="79">
-        <f ca="1">E23+4</f>
-        <v>45961</v>
+        <f>E23+4</f>
+        <v>45960</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I23" s="5"/>
@@ -4619,17 +4618,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D31">
@@ -4829,6 +4828,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5116,15 +5124,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
@@ -5138,6 +5137,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5156,12 +5163,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/就職作品ガントチャート.xlsx
+++ b/就職作品ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ED3740-43C5-43EC-B0AE-219C48ABA2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C10742-7919-42D8-A17F-3E5D66148839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2044,7 +2044,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2841,13 +2841,13 @@
         <v>45941</v>
       </c>
       <c r="F9" s="73">
-        <f>E9+1</f>
-        <v>45942</v>
+        <f>E9+2</f>
+        <v>45943</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="40">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -2921,11 +2921,11 @@
       </c>
       <c r="E10" s="73">
         <f>F9</f>
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="F10" s="73">
         <f>E10+2</f>
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40">
@@ -3002,11 +3002,11 @@
       </c>
       <c r="E11" s="73">
         <f>F10</f>
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="F11" s="73">
         <f>E11+2</f>
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40">
@@ -3083,11 +3083,11 @@
       </c>
       <c r="E12" s="73">
         <f>F11</f>
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="F12" s="73">
         <f>E12+2</f>
-        <v>45948</v>
+        <v>45949</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="40">
@@ -3237,11 +3237,11 @@
       </c>
       <c r="E14" s="76">
         <f>F12</f>
-        <v>45948</v>
+        <v>45949</v>
       </c>
       <c r="F14" s="76">
         <f>E14+1</f>
-        <v>45949</v>
+        <v>45950</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40">
@@ -3318,11 +3318,11 @@
       </c>
       <c r="E15" s="76">
         <f>E14</f>
-        <v>45948</v>
+        <v>45949</v>
       </c>
       <c r="F15" s="76">
         <f>E15+1</f>
-        <v>45949</v>
+        <v>45950</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40">
@@ -3399,11 +3399,11 @@
       </c>
       <c r="E16" s="76">
         <f>F15</f>
-        <v>45949</v>
+        <v>45950</v>
       </c>
       <c r="F16" s="76">
         <f>E16+3</f>
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="E17" s="76">
         <f>F16</f>
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="F17" s="76">
         <f>E17+2</f>
-        <v>45954</v>
+        <v>45955</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40">
@@ -3632,11 +3632,11 @@
       <c r="D19" s="47"/>
       <c r="E19" s="79">
         <f>F17</f>
-        <v>45954</v>
+        <v>45955</v>
       </c>
       <c r="F19" s="79">
         <f>E19+1</f>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40">
@@ -3711,11 +3711,11 @@
       <c r="D20" s="47"/>
       <c r="E20" s="79">
         <f>F19</f>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="F20" s="79">
         <f>E20+1</f>
-        <v>45956</v>
+        <v>45957</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="40">
@@ -3790,11 +3790,11 @@
       <c r="D21" s="47"/>
       <c r="E21" s="79">
         <f>F20</f>
-        <v>45956</v>
+        <v>45957</v>
       </c>
       <c r="F21" s="79">
         <f>E21+5</f>
-        <v>45961</v>
+        <v>45962</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="40">
@@ -3869,11 +3869,11 @@
       <c r="D22" s="47"/>
       <c r="E22" s="79">
         <f>F21+1</f>
-        <v>45962</v>
+        <v>45963</v>
       </c>
       <c r="F22" s="79">
         <f>E22+4</f>
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40">
@@ -3946,11 +3946,11 @@
       <c r="D23" s="47"/>
       <c r="E23" s="79">
         <f>E21</f>
-        <v>45956</v>
+        <v>45957</v>
       </c>
       <c r="F23" s="79">
         <f>E23+4</f>
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="40">
